--- a/medicine/Maladies infectieuses/How_to_Survive_a_Plague/How_to_Survive_a_Plague.xlsx
+++ b/medicine/Maladies infectieuses/How_to_Survive_a_Plague/How_to_Survive_a_Plague.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">How to Survive a Plague est un film documentaire américain écrit et réalisé par David France (en) en 2012.
 Il a été présenté au Festival de Sundance 2012 et a été nommé à l'Oscar du meilleur film documentaire en 2013.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film traite des premières années de l'épidémie du SIDA, et des efforts d'ACT UP et de Treatment Action Group (en).
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : How to Survive a Plague
 Réalisation : David France (en)
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bill Bahlman
 David Barr
@@ -636,9 +654,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a reçu un accueil extrêmement positif. Il obtient une note de 100 % sur l’agrégateur de critiques Rotten Tomatoes, basé sur 46 critiques[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a reçu un accueil extrêmement positif. Il obtient une note de 100 % sur l’agrégateur de critiques Rotten Tomatoes, basé sur 46 critiques.
 </t>
         </is>
       </c>
@@ -667,7 +687,9 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2013 : Meilleur film documentaire aux Chlotrudis Awards</t>
         </is>
